--- a/documentation/Documentation.xlsx
+++ b/documentation/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DB1F5C-3F7B-2C49-8C22-899F64944E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB2694-7470-7541-B0D4-9ED839A01D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
@@ -917,16 +917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812797</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>194733</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>745066</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>575734</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -941,7 +941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3301997" y="2760133"/>
+          <a:off x="5621865" y="2065866"/>
           <a:ext cx="762002" cy="829734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1001,16 +1001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>389469</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>110069</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>186269</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>804333</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601133</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1025,7 +1025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4538136" y="4097869"/>
+          <a:off x="5164669" y="4334935"/>
           <a:ext cx="1244597" cy="787397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1086,15 +1086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>351368</xdr:colOff>
+      <xdr:colOff>351369</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>160865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>364065</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>194732</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1108,15 +1108,15 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3456516" y="2533650"/>
-          <a:ext cx="440267" cy="12697"/>
+          <a:off x="4565650" y="1424517"/>
+          <a:ext cx="160867" cy="1951564"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1143,15 +1143,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>351368</xdr:colOff>
+      <xdr:colOff>351369</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>160865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182034</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:colOff>211668</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1165,18 +1165,16 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="29" idx="0"/>
+          <a:endCxn id="29" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4275667" y="1714499"/>
-          <a:ext cx="279401" cy="1490133"/>
+          <a:off x="3837517" y="2152650"/>
+          <a:ext cx="1185335" cy="1519766"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1342,16 +1340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>414867</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>778934</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>575734</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1366,7 +1364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4563534" y="2599267"/>
+          <a:off x="5190067" y="3039534"/>
           <a:ext cx="1193800" cy="931334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1434,15 +1432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182033</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>808567</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>182034</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>110069</xdr:rowOff>
+      <xdr:colOff>808568</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>143934</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1461,8 +1459,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4876800" y="3814234"/>
-          <a:ext cx="567268" cy="1"/>
+          <a:off x="5604934" y="4152900"/>
+          <a:ext cx="364067" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1598,15 +1596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>601135</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:colOff>67736</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>677334</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1621,7 +1619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1430868" y="2531534"/>
+          <a:off x="897469" y="2954867"/>
           <a:ext cx="1439332" cy="2142066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1651,7 +1649,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>BadgeRequirements</a:t>
+            <a:t>UserBadgeChecklist</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1672,7 +1670,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>badge_id</a:t>
+            <a:t>user_badge_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1760,16 +1758,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>491067</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>186268</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>787401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1783,15 +1781,182 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="46" idx="0"/>
+          <a:endCxn id="18" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2429934" y="1862668"/>
-          <a:ext cx="389466" cy="948266"/>
+          <a:off x="1322917" y="2148417"/>
+          <a:ext cx="1100668" cy="512233"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626533</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406398</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48CB6BD-0ED4-EC40-A1DA-93FADE3B45D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3115733" y="3742267"/>
+          <a:ext cx="1439332" cy="1253066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>BadgeRequirements</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>---------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>badge_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>supportingdoc (blob)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>626533</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209341</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Elbow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4506131B-D8A3-0E4B-ADEF-3F6DD5DD7C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3096753" y="2316703"/>
+          <a:ext cx="406214" cy="2033954"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56276"/>
+            <a:gd name="adj2" fmla="val 65340"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2114,15 +2279,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E711D-A889-F840-B38C-48F66B50F2D4}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="182" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,86 +2295,88 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H7" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H8" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H13" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H14" s="3" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H15" s="3" t="s">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H16" s="3" t="s">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="3" t="s">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="3" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="3" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="3" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
         <v>106</v>
       </c>
     </row>

--- a/documentation/Documentation.xlsx
+++ b/documentation/Documentation.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFB2694-7470-7541-B0D4-9ED839A01D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4CDC4-3370-C44A-957B-E0C576E7BD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="API" sheetId="3" r:id="rId2"/>
-    <sheet name="Models" sheetId="4" r:id="rId3"/>
-    <sheet name="Seed Data" sheetId="5" r:id="rId4"/>
+    <sheet name="User" sheetId="5" r:id="rId3"/>
+    <sheet name="Badge" sheetId="6" r:id="rId4"/>
+    <sheet name="Achievement" sheetId="7" r:id="rId5"/>
+    <sheet name="Requirement" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API!$A$41:$E$49</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
   <si>
     <t>Excella Badges</t>
   </si>
@@ -71,21 +76,12 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Achievement</t>
-  </si>
-  <si>
     <t>Certification</t>
   </si>
   <si>
     <t>Capability</t>
   </si>
   <si>
-    <t>SkillLevel</t>
-  </si>
-  <si>
-    <t>Last Updated 03/08/22</t>
-  </si>
-  <si>
     <t>API Schema v1.0</t>
   </si>
   <si>
@@ -107,54 +103,6 @@
     <t>User[]</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>first name of the user</t>
-  </si>
-  <si>
-    <t>primary key</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>consultant, senior, lead, etc..</t>
-  </si>
-  <si>
-    <t>developer, agilist, capability lead</t>
-  </si>
-  <si>
-    <t>java, .net, python, agile, marketing</t>
-  </si>
-  <si>
-    <t>primary_skill</t>
-  </si>
-  <si>
-    <t>excella email address</t>
-  </si>
-  <si>
-    <t>last name of user</t>
-  </si>
-  <si>
     <t>Return list of all users</t>
   </si>
   <si>
@@ -224,123 +172,15 @@
     <t>Returns list of badges for a given skill</t>
   </si>
   <si>
-    <t>/userbadge</t>
-  </si>
-  <si>
-    <t>UserBadge[]</t>
-  </si>
-  <si>
-    <t>Returns list of all userbadges</t>
-  </si>
-  <si>
-    <t>Returns list of userbadges for a given user</t>
-  </si>
-  <si>
-    <t>/userbadge/user/{user_id}</t>
-  </si>
-  <si>
-    <t>/userbadge/user/{user_id}/capability/{capability_id}</t>
-  </si>
-  <si>
-    <t>Returns list of userbadges for a given user and capability</t>
-  </si>
-  <si>
-    <t>/userbadge/user/{user_id}/skill/{skill_id}</t>
-  </si>
-  <si>
-    <t>Returns list of userbadges for a given user and skill</t>
-  </si>
-  <si>
-    <t>/userbadge/{id}</t>
-  </si>
-  <si>
-    <t>UserBadge</t>
-  </si>
-  <si>
-    <t>Returns a userbadge given the id</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>/authenticate</t>
   </si>
   <si>
-    <t>{ "email": string, "password": string }</t>
-  </si>
-  <si>
     <t>Uses passport saml auth</t>
   </si>
   <si>
     <t>Token</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>capability_id</t>
-  </si>
-  <si>
-    <t>fk to capability</t>
-  </si>
-  <si>
-    <t>badge_type_id</t>
-  </si>
-  <si>
-    <t>fk to badge type</t>
-  </si>
-  <si>
-    <t>skill_level_id</t>
-  </si>
-  <si>
-    <t>fk to skill level</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>archived</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>name of skill level</t>
-  </si>
-  <si>
-    <t>name of the capability</t>
-  </si>
-  <si>
-    <t>BadgeType</t>
-  </si>
-  <si>
-    <t>type of badge</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>fk to User</t>
-  </si>
-  <si>
-    <t>badge_id</t>
-  </si>
-  <si>
-    <t>fk to Badge</t>
-  </si>
-  <si>
-    <t>additional notes about achievement</t>
-  </si>
-  <si>
     <t>Challege</t>
   </si>
   <si>
@@ -368,9 +208,6 @@
     <t>Kanban</t>
   </si>
   <si>
-    <t>name of the discipline</t>
-  </si>
-  <si>
     <t>/discipline</t>
   </si>
   <si>
@@ -392,80 +229,221 @@
     <t>/badge/discipline/{id}</t>
   </si>
   <si>
-    <t>Solutions Architect</t>
-  </si>
-  <si>
-    <t>DevOps</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>React</t>
-  </si>
-  <si>
-    <t>Vue</t>
-  </si>
-  <si>
-    <t>Jquery</t>
-  </si>
-  <si>
-    <t>Java Spring</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>Django</t>
-  </si>
-  <si>
-    <t>Scrum</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>SSO</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Heroku</t>
-  </si>
-  <si>
-    <t>Data Engineering</t>
-  </si>
-  <si>
-    <t>Capability Lead</t>
-  </si>
-  <si>
-    <t>Interviewing</t>
-  </si>
-  <si>
-    <t>System Design</t>
-  </si>
-  <si>
-    <t>Xpert</t>
-  </si>
-  <si>
     <t>Last Updated 03/11/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Returns list of all requirements for a given badge</t>
+  </si>
+  <si>
+    <t>Checklist[]</t>
+  </si>
+  <si>
+    <t>Requirements[]</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Returns a single requirement given a requirement id</t>
+  </si>
+  <si>
+    <t>/requirement/badge/{badgeid}</t>
+  </si>
+  <si>
+    <t>/requirement/{id}</t>
+  </si>
+  <si>
+    <t>/checklist/user/{userid}/badge/{badgeid}</t>
+  </si>
+  <si>
+    <t>/checklist/{id}</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>Returns a single checklist requirement</t>
+  </si>
+  <si>
+    <t>Public/Private</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Updates an existing badge</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Creates a new badge</t>
+  </si>
+  <si>
+    <t>Badge Routes</t>
+  </si>
+  <si>
+    <t>Disclipine Routes</t>
+  </si>
+  <si>
+    <t>Capability Routes</t>
+  </si>
+  <si>
+    <t>Skilllevel Routes</t>
+  </si>
+  <si>
+    <t>User Routes</t>
+  </si>
+  <si>
+    <t>CurrentUser Routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { badge: Badge }</t>
+  </si>
+  <si>
+    <t>Requirement Routes</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Checklist Routes</t>
+  </si>
+  <si>
+    <t>Returns the result of updating a badge checklist item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { checklist: Checklist}</t>
+  </si>
+  <si>
+    <t>/checklist</t>
+  </si>
+  <si>
+    <t>Returns a new badge checklist item</t>
+  </si>
+  <si>
+    <t>/requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { requirement: Requirement}</t>
+  </si>
+  <si>
+    <t>Returns a new badge requirement item</t>
+  </si>
+  <si>
+    <t>Result from updating a requirement</t>
+  </si>
+  <si>
+    <t>Updates an existing user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { user: User  }</t>
+  </si>
+  <si>
+    <t>Creates a new user</t>
+  </si>
+  <si>
+    <t>/discipline/{id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { discipline: Discipline }</t>
+  </si>
+  <si>
+    <t>Updates an existing discipline</t>
+  </si>
+  <si>
+    <t>Creates a new discipline</t>
+  </si>
+  <si>
+    <t>Deletes a requirement</t>
+  </si>
+  <si>
+    <t>Authentication Routes</t>
+  </si>
+  <si>
+    <t>/authenciate/getToken</t>
+  </si>
+  <si>
+    <t>Returns the token of the currently authentication user</t>
+  </si>
+  <si>
+    <t>Returns list of all checklists  for a given user and badge</t>
+  </si>
+  <si>
+    <t>Returns the result of updating a requirement item</t>
+  </si>
+  <si>
+    <t>{ "email": string, "password": encrypted string }</t>
+  </si>
+  <si>
+    <t>/user/discipline/{id}</t>
+  </si>
+  <si>
+    <t>Returns list of all users that have at least one achievement in this discipline</t>
+  </si>
+  <si>
+    <t>/user/capability/{id}</t>
+  </si>
+  <si>
+    <t>Returns list of all users that have at least one achievement in a capability</t>
+  </si>
+  <si>
+    <t>achievement[]</t>
+  </si>
+  <si>
+    <t>/achievement/{id}</t>
+  </si>
+  <si>
+    <t>Returns a achievement  given the id</t>
+  </si>
+  <si>
+    <t>/achievement/user/{user_id}</t>
+  </si>
+  <si>
+    <t>Returns list of achievement  for a given user</t>
+  </si>
+  <si>
+    <t>/achievement</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>Returns the new achievement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      { achievement: achievement }</t>
+  </si>
+  <si>
+    <t>Updates an existing achievement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { achievement: achievement }</t>
+  </si>
+  <si>
+    <t>Deletes an achievement</t>
+  </si>
+  <si>
+    <t>Achievement Routes</t>
+  </si>
+  <si>
+    <t>Returns list of all achievements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,6 +481,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -524,12 +510,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,7 +1531,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>UserBadges</a:t>
+            <a:t>Achievement</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1649,7 +1636,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>UserBadgeChecklist</a:t>
+            <a:t>AchievementChecklist</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1670,7 +1657,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>user_badge_id</a:t>
+            <a:t>achievement_id</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1871,7 +1858,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>BadgeRequirements</a:t>
+            <a:t>BadgeRequirement</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2282,7 +2269,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="182" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2292,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2307,17 +2294,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H7" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H8" s="3" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2332,12 +2314,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I13" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2347,7 +2329,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I16" s="3" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.2">
@@ -2362,12 +2344,12 @@
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I19" s="3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I22" s="3" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.2">
@@ -2377,7 +2359,7 @@
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I24" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2389,749 +2371,927 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="3" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EEAA94-EA24-CE4C-9C6A-74D7F09A4391}">
-  <dimension ref="A1:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="32.1640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -3141,233 +3301,205 @@
     <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136FA600-DCF7-6449-AA10-6D4391292D97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AF7CB-0904-5742-AE3B-3734F670F078}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548BACAB-22C5-C345-9867-53CF1A6F23C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/Documentation.xlsx
+++ b/documentation/Documentation.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4CDC4-3370-C44A-957B-E0C576E7BD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309B24F-AFA9-9644-8524-4C1CCA1EFE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD Diagram" sheetId="1" r:id="rId1"/>
-    <sheet name="API" sheetId="3" r:id="rId2"/>
-    <sheet name="User" sheetId="5" r:id="rId3"/>
-    <sheet name="Badge" sheetId="6" r:id="rId4"/>
-    <sheet name="Achievement" sheetId="7" r:id="rId5"/>
-    <sheet name="Requirement" sheetId="8" r:id="rId6"/>
+    <sheet name="Architecture" sheetId="17" r:id="rId2"/>
+    <sheet name="API" sheetId="3" r:id="rId3"/>
+    <sheet name="Skilllevel" sheetId="16" r:id="rId4"/>
+    <sheet name="Capability" sheetId="15" r:id="rId5"/>
+    <sheet name="Discipline" sheetId="14" r:id="rId6"/>
+    <sheet name="Authentication" sheetId="13" r:id="rId7"/>
+    <sheet name="BadgeRequirement" sheetId="10" r:id="rId8"/>
+    <sheet name="AchievementChecklist" sheetId="12" r:id="rId9"/>
+    <sheet name="Achievement" sheetId="11" r:id="rId10"/>
+    <sheet name="User" sheetId="5" r:id="rId11"/>
+    <sheet name="Badge" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API!$A$41:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$41:$E$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="172">
   <si>
     <t>Excella Badges</t>
   </si>
@@ -76,12 +82,18 @@
     <t>Python</t>
   </si>
   <si>
+    <t>Achievement</t>
+  </si>
+  <si>
     <t>Certification</t>
   </si>
   <si>
     <t>Capability</t>
   </si>
   <si>
+    <t>SkillLevel</t>
+  </si>
+  <si>
     <t>API Schema v1.0</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>Token</t>
   </si>
   <si>
+    <t>BadgeType</t>
+  </si>
+  <si>
     <t>Challege</t>
   </si>
   <si>
@@ -367,6 +382,9 @@
     <t>Deletes a requirement</t>
   </si>
   <si>
+    <t>Authentication</t>
+  </si>
+  <si>
     <t>Authentication Routes</t>
   </si>
   <si>
@@ -437,13 +455,124 @@
   </si>
   <si>
     <t>Returns list of all achievements</t>
+  </si>
+  <si>
+    <t>AchievementChecklist Routes</t>
+  </si>
+  <si>
+    <t>Used to get badges</t>
+  </si>
+  <si>
+    <t>Get current user and users</t>
+  </si>
+  <si>
+    <t>Get the requirements associated with a badge</t>
+  </si>
+  <si>
+    <t>Get the list of badges that a user is either earning or has earned</t>
+  </si>
+  <si>
+    <t>Get the list of items for an achievement.  These are the active requirements that a user performing in order to get an achievement for a badge</t>
+  </si>
+  <si>
+    <t>Used to authenticate a user</t>
+  </si>
+  <si>
+    <t>Disciplines are areas of achievement for a given capability</t>
+  </si>
+  <si>
+    <t>Capabilities represent groupings of disciplines and identify the area for a discipline</t>
+  </si>
+  <si>
+    <t>Skill levels represent expertise for a discpline</t>
+  </si>
+  <si>
+    <t>BadgeType Routes</t>
+  </si>
+  <si>
+    <t>BadgeType[]</t>
+  </si>
+  <si>
+    <t>Returns the list of badge types</t>
+  </si>
+  <si>
+    <t>/badgetype</t>
+  </si>
+  <si>
+    <t>Controllers</t>
+  </si>
+  <si>
+    <t>BadgeRequirement</t>
+  </si>
+  <si>
+    <t>AchievementChecklist</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     UserService</t>
+  </si>
+  <si>
+    <t>AchievementService</t>
+  </si>
+  <si>
+    <t>BadgeService</t>
+  </si>
+  <si>
+    <t>CapabilityService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { capability: Capability }</t>
+  </si>
+  <si>
+    <t>/capability/category/{id}</t>
+  </si>
+  <si>
+    <t>Returns list of capabilities  for a given category</t>
+  </si>
+  <si>
+    <t>Updates an existing capability</t>
+  </si>
+  <si>
+    <t>Creates a new capability</t>
+  </si>
+  <si>
+    <t>Category Routes</t>
+  </si>
+  <si>
+    <t>/category</t>
+  </si>
+  <si>
+    <t>/category/{id}</t>
+  </si>
+  <si>
+    <t>Category[]</t>
+  </si>
+  <si>
+    <t>Returns list of all categories</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Returns category given id</t>
+  </si>
+  <si>
+    <t>Last Updated 03/12/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Service</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,6 +618,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,13 +684,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,15 +719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>287868</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>8468</xdr:rowOff>
+      <xdr:colOff>277708</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>270934</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:colOff>260774</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -562,8 +742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="287868" y="745068"/>
-          <a:ext cx="812799" cy="1676399"/>
+          <a:off x="277708" y="1369908"/>
+          <a:ext cx="806026" cy="1676399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,16 +844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67734</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160866</xdr:rowOff>
+      <xdr:colOff>362374</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -688,8 +868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124201" y="626533"/>
-          <a:ext cx="1092200" cy="1693333"/>
+          <a:off x="3398521" y="1292013"/>
+          <a:ext cx="1078653" cy="1693333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,15 +971,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>270935</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135466</xdr:rowOff>
+      <xdr:colOff>260775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>719670</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:colOff>744512</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44028</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -818,8 +998,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1100668" y="1278466"/>
-          <a:ext cx="448735" cy="304801"/>
+          <a:off x="1083735" y="1907214"/>
+          <a:ext cx="483737" cy="300894"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -848,15 +1028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>220134</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:colOff>244976</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -875,8 +1055,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2709334" y="1278467"/>
-          <a:ext cx="414867" cy="194733"/>
+          <a:off x="2713856" y="1907214"/>
+          <a:ext cx="684665" cy="231466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -905,15 +1085,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>643465</xdr:colOff>
+      <xdr:colOff>537455</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
+      <xdr:rowOff>23762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>575734</xdr:colOff>
+      <xdr:colOff>738330</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>40696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -928,8 +1108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5621865" y="2065866"/>
-          <a:ext cx="762002" cy="829734"/>
+          <a:off x="5475215" y="1984642"/>
+          <a:ext cx="1023835" cy="829734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,15 +1169,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>186269</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>143935</xdr:rowOff>
+      <xdr:colOff>340790</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>601133</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>118532</xdr:rowOff>
+      <xdr:colOff>755207</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1012,8 +1192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5164669" y="4334935"/>
-          <a:ext cx="1244597" cy="787397"/>
+          <a:off x="5278550" y="4671498"/>
+          <a:ext cx="1237377" cy="787398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,7 +1222,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Capability</a:t>
+            <a:t>Category</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1072,16 +1252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>351369</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160865</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>362374</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>643466</xdr:colOff>
+      <xdr:colOff>537455</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>118532</xdr:rowOff>
+      <xdr:rowOff>32229</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1094,74 +1274,19 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="2"/>
+          <a:stCxn id="4" idx="3"/>
           <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4565650" y="1424517"/>
-          <a:ext cx="160867" cy="1951564"/>
+        <a:xfrm>
+          <a:off x="4477174" y="2138680"/>
+          <a:ext cx="998041" cy="260829"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>351369</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>160865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>211668</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Elbow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDEBD2B-2FC7-0947-9C46-FD0B26E9A177}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="29" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3837517" y="2152650"/>
-          <a:ext cx="1185335" cy="1519766"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1187,15 +1312,74 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>584201</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>362374</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>366189</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Elbow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDEBD2B-2FC7-0947-9C46-FD0B26E9A177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4477174" y="2138680"/>
+          <a:ext cx="826775" cy="1808174"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565110</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>767863</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:rowOff>92666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1210,8 +1394,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4732868" y="965200"/>
-          <a:ext cx="1032932" cy="888999"/>
+          <a:off x="5502870" y="961348"/>
+          <a:ext cx="1025713" cy="888998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,15 +1455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67734</xdr:colOff>
+      <xdr:colOff>362374</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>54567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>584201</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565110</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1298,8 +1482,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4216401" y="1409700"/>
-          <a:ext cx="516467" cy="63500"/>
+          <a:off x="4477174" y="1405847"/>
+          <a:ext cx="1025696" cy="732833"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1328,15 +1512,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
+      <xdr:colOff>366189</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>575734</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>186268</xdr:rowOff>
+      <xdr:colOff>729809</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1351,8 +1535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5190067" y="3039534"/>
-          <a:ext cx="1193800" cy="931334"/>
+          <a:off x="5303949" y="3480768"/>
+          <a:ext cx="1186580" cy="932172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,7 +1565,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>Discipline</a:t>
+            <a:t>Capability</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1409,7 +1593,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>capability_id</a:t>
+            <a:t>category_id</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1418,16 +1602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>808567</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130169</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>808568</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>143934</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142869</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1445,9 +1629,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5604934" y="4152900"/>
-          <a:ext cx="364067" cy="1"/>
+        <a:xfrm rot="5400000">
+          <a:off x="5767960" y="4542219"/>
+          <a:ext cx="258558" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1478,15 +1662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>719669</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:colOff>744511</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>183402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>220134</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:colOff>244976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1501,8 +1685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1549402" y="702734"/>
-          <a:ext cx="1159932" cy="1151465"/>
+          <a:off x="1567471" y="1331482"/>
+          <a:ext cx="1146385" cy="1151464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,15 +1767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>67736</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:colOff>642612</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>677334</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>93133</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428803</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1606,8 +1790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="897469" y="2954867"/>
-          <a:ext cx="1439332" cy="2142066"/>
+          <a:off x="1465572" y="2686354"/>
+          <a:ext cx="1432111" cy="2142066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,16 +1929,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>787401</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>494744</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>186268</xdr:rowOff>
+      <xdr:colOff>535708</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1772,9 +1956,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1322917" y="2148417"/>
-          <a:ext cx="1100668" cy="512233"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2059442" y="2564168"/>
+          <a:ext cx="203408" cy="40964"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1804,16 +1988,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>626533</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1859</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>406398</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>194733</xdr:rowOff>
+      <xdr:colOff>604684</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1828,8 +2012,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3115733" y="3742267"/>
-          <a:ext cx="1439332" cy="1253066"/>
+          <a:off x="3293699" y="3515732"/>
+          <a:ext cx="1425785" cy="1253066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,16 +2093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>626533</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167472</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>646008</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209341</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>714752</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1931,18 +2115,18 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="90" idx="1"/>
+          <a:stCxn id="90" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="3096753" y="2316703"/>
-          <a:ext cx="406214" cy="2033954"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3707027" y="3216167"/>
+          <a:ext cx="530386" cy="68744"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -56276"/>
-            <a:gd name="adj2" fmla="val 65340"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1958,6 +2142,706 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Straight Connector 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489BBE09-CFA6-E841-8BC2-85B087C2FC94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="629920"/>
+          <a:ext cx="30480" cy="4318000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="Straight Connector 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A4B7AA-64DC-5D45-B9BF-DC88645DB36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249680" y="640080"/>
+          <a:ext cx="30480" cy="4318000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Connector 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F34D87-9AC5-1540-AC1E-DEF0875F73F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="132080" y="4947920"/>
+          <a:ext cx="1168400" cy="20320"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Straight Connector 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47712E3B-40A0-FF4D-B9C0-FB25A6FC3165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111760" y="640080"/>
+          <a:ext cx="1148080" cy="20320"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="Straight Connector 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC7D340-2216-604B-8E18-E635D589D81A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="640080"/>
+          <a:ext cx="30480" cy="4318000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="Straight Connector 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29C0F68-9895-A24A-90F8-5685A4F3C6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3017520" y="680720"/>
+          <a:ext cx="30480" cy="4257040"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="Straight Connector 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD38E686-D9A0-B146-BCBF-8CAC87E32797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1381760" y="4958080"/>
+          <a:ext cx="1656080" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="Straight Connector 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CF833E-D46D-D14E-AADD-17B7C08B7B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1361440" y="650240"/>
+          <a:ext cx="1706880" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="Straight Connector 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F942F5E-ADBA-6E40-9766-296B9C64B4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3129280" y="640080"/>
+          <a:ext cx="30480" cy="5080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="Straight Connector 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE09CAE0-D08B-5F4D-A61C-D04850EF564D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5049520" y="3017520"/>
+          <a:ext cx="20320" cy="2702560"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="Straight Connector 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F506E2-1250-A848-90E3-874316C60483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3180080" y="650240"/>
+          <a:ext cx="4490720" cy="40640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="Straight Connector 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E044172F-C9A3-C64F-92A6-C305EA8136EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7731760" y="690880"/>
+          <a:ext cx="20320" cy="5069840"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="Straight Connector 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C90CE5B-5F6E-3241-AECD-110D39CB064D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3108960" y="5720080"/>
+          <a:ext cx="4805680" cy="10160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="Straight Connector 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9E3DB7-6F19-1648-891C-51AAE4525F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5080000" y="2997200"/>
+          <a:ext cx="2641600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2266,10 +3150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E711D-A889-F840-B38C-48F66B50F2D4}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="182" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2279,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2287,19 +3171,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H5" s="3" t="s">
-        <v>10</v>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H6" s="3" t="s">
-        <v>45</v>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H7" s="3" t="s">
-        <v>46</v>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2314,52 +3209,63 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="3" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="3" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="3" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="3" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="3" t="s">
-        <v>51</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2369,12 +3275,574 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121AAD50-1F3E-354D-A82B-FE61577E596D}">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
+  <dimension ref="A2:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76ECEE02-A62F-9940-A475-75E3AFFA3A60}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A8053C-D8C3-E04F-A8BA-57074B278210}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,28 +3855,28 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2420,7 +3888,7 @@
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2429,19 +3897,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2453,7 +3921,7 @@
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2462,73 +3930,73 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2544,7 +4012,7 @@
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2553,19 +4021,19 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2577,7 +4045,7 @@
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2586,36 +4054,36 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2627,7 +4095,7 @@
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2636,58 +4104,58 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2696,24 +4164,24 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2729,7 +4197,7 @@
     </row>
     <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2738,109 +4206,109 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2849,24 +4317,24 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2882,7 +4350,7 @@
     </row>
     <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2891,55 +4359,55 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2948,59 +4416,59 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3012,7 +4480,7 @@
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3021,75 +4489,75 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3098,24 +4566,24 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3124,19 +4592,19 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,7 +4616,7 @@
     </row>
     <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3157,58 +4625,58 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3217,46 +4685,46 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3265,19 +4733,41 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3286,220 +4776,581 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
-  <dimension ref="A1:E19"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A465CD1-D6F7-9041-8A2D-50A1485B8A1E}">
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136FA600-DCF7-6449-AA10-6D4391292D97}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39AF7CB-0904-5742-AE3B-3734F670F078}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B163E5-67A7-084D-A911-402169A79C95}">
+  <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548BACAB-22C5-C345-9867-53CF1A6F23C5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0F426C-1745-574D-951C-4E7769C56B92}">
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8BAF33-DE4E-1E4F-AD2E-75B314F497B5}">
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCCEC27-64BC-994D-B48B-D371CCD95FCF}">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D14B79-96F7-D04D-9879-B8E70751AAF2}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/Documentation.xlsx
+++ b/documentation/Documentation.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309B24F-AFA9-9644-8524-4C1CCA1EFE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D776933-4A63-4F4F-A3D4-3ABB0DA35588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="Architecture" sheetId="17" r:id="rId2"/>
     <sheet name="API" sheetId="3" r:id="rId3"/>
-    <sheet name="Skilllevel" sheetId="16" r:id="rId4"/>
-    <sheet name="Capability" sheetId="15" r:id="rId5"/>
-    <sheet name="Discipline" sheetId="14" r:id="rId6"/>
-    <sheet name="Authentication" sheetId="13" r:id="rId7"/>
-    <sheet name="BadgeRequirement" sheetId="10" r:id="rId8"/>
-    <sheet name="AchievementChecklist" sheetId="12" r:id="rId9"/>
-    <sheet name="Achievement" sheetId="11" r:id="rId10"/>
-    <sheet name="User" sheetId="5" r:id="rId11"/>
+    <sheet name="User" sheetId="5" r:id="rId4"/>
+    <sheet name="Skilllevel" sheetId="16" r:id="rId5"/>
+    <sheet name="Capability" sheetId="15" r:id="rId6"/>
+    <sheet name="Discipline" sheetId="14" r:id="rId7"/>
+    <sheet name="Authentication" sheetId="13" r:id="rId8"/>
+    <sheet name="BadgeRequirement" sheetId="10" r:id="rId9"/>
+    <sheet name="AchievementChecklist" sheetId="12" r:id="rId10"/>
+    <sheet name="Achievement" sheetId="11" r:id="rId11"/>
     <sheet name="Badge" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$41:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$44:$E$52</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="179">
   <si>
     <t>Excella Badges</t>
   </si>
@@ -566,6 +566,27 @@
   </si>
   <si>
     <t xml:space="preserve">        Service</t>
+  </si>
+  <si>
+    <t>Autenticates a user</t>
+  </si>
+  <si>
+    <t>/user/logout</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>Logs a user out of the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { "email": string, "password": encrypted string }</t>
+  </si>
+  <si>
+    <t>/user/email/{email}</t>
+  </si>
+  <si>
+    <t>Returns a user given an email address</t>
   </si>
 </sst>
 </file>
@@ -664,12 +685,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -684,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,6 +724,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3150,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E711D-A889-F840-B38C-48F66B50F2D4}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3253,18 +3281,18 @@
         <v>56</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I24" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3276,6 +3304,115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D14B79-96F7-D04D-9879-B8E70751AAF2}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121AAD50-1F3E-354D-A82B-FE61577E596D}">
   <dimension ref="A2:F12"/>
   <sheetViews>
@@ -3433,189 +3570,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
-  <dimension ref="A2:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3839,10 +3793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3899,7 +3853,7 @@
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3930,111 +3884,121 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>173</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -4045,7 +4009,7 @@
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4054,7 +4018,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>81</v>
@@ -4063,48 +4027,48 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>81</v>
@@ -4113,153 +4077,135 @@
         <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -4269,504 +4215,507 @@
         <v>34</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B45" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B46" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4777,6 +4726,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
+  <dimension ref="A2:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A465CD1-D6F7-9041-8A2D-50A1485B8A1E}">
   <dimension ref="A2:F5"/>
   <sheetViews>
@@ -4827,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B163E5-67A7-084D-A911-402169A79C95}">
   <dimension ref="A2:F6"/>
   <sheetViews>
@@ -4896,7 +5088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0F426C-1745-574D-951C-4E7769C56B92}">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -5021,7 +5213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8BAF33-DE4E-1E4F-AD2E-75B314F497B5}">
   <dimension ref="A2:F7"/>
   <sheetViews>
@@ -5100,7 +5292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCCEC27-64BC-994D-B48B-D371CCD95FCF}">
   <dimension ref="A2:F12"/>
   <sheetViews>
@@ -5244,113 +5436,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D14B79-96F7-D04D-9879-B8E70751AAF2}">
-  <dimension ref="A2:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentation/Documentation.xlsx
+++ b/documentation/Documentation.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D776933-4A63-4F4F-A3D4-3ABB0DA35588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500D87D-3ECD-8A48-88DC-8A244791E099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="2" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD Diagram" sheetId="1" r:id="rId1"/>
-    <sheet name="Architecture" sheetId="17" r:id="rId2"/>
-    <sheet name="API" sheetId="3" r:id="rId3"/>
-    <sheet name="User" sheetId="5" r:id="rId4"/>
-    <sheet name="Skilllevel" sheetId="16" r:id="rId5"/>
-    <sheet name="Capability" sheetId="15" r:id="rId6"/>
-    <sheet name="Discipline" sheetId="14" r:id="rId7"/>
-    <sheet name="Authentication" sheetId="13" r:id="rId8"/>
-    <sheet name="BadgeRequirement" sheetId="10" r:id="rId9"/>
-    <sheet name="AchievementChecklist" sheetId="12" r:id="rId10"/>
-    <sheet name="Achievement" sheetId="11" r:id="rId11"/>
-    <sheet name="Badge" sheetId="9" r:id="rId12"/>
+    <sheet name="API" sheetId="3" r:id="rId2"/>
+    <sheet name="User" sheetId="5" r:id="rId3"/>
+    <sheet name="Skilllevel" sheetId="16" r:id="rId4"/>
+    <sheet name="Capability" sheetId="15" r:id="rId5"/>
+    <sheet name="Catgory" sheetId="14" r:id="rId6"/>
+    <sheet name="Authentication" sheetId="13" r:id="rId7"/>
+    <sheet name="BadgeRequirement" sheetId="10" r:id="rId8"/>
+    <sheet name="AchievementChecklist" sheetId="12" r:id="rId9"/>
+    <sheet name="Achievement" sheetId="11" r:id="rId10"/>
+    <sheet name="Badge" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">API!$A$44:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">API!$A$49:$E$57</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="163">
   <si>
     <t>Excella Badges</t>
   </si>
@@ -82,18 +81,12 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Achievement</t>
-  </si>
-  <si>
     <t>Certification</t>
   </si>
   <si>
     <t>Capability</t>
   </si>
   <si>
-    <t>SkillLevel</t>
-  </si>
-  <si>
     <t>API Schema v1.0</t>
   </si>
   <si>
@@ -151,9 +144,6 @@
     <t>/capability/{id}</t>
   </si>
   <si>
-    <t>Returns capability given id</t>
-  </si>
-  <si>
     <t>Badge[]</t>
   </si>
   <si>
@@ -193,9 +183,6 @@
     <t>Token</t>
   </si>
   <si>
-    <t>BadgeType</t>
-  </si>
-  <si>
     <t>Challege</t>
   </si>
   <si>
@@ -208,9 +195,6 @@
     <t>Expert</t>
   </si>
   <si>
-    <t>Discipline</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
@@ -223,21 +207,6 @@
     <t>Kanban</t>
   </si>
   <si>
-    <t>/discipline</t>
-  </si>
-  <si>
-    <t>Returns list of all disciplines</t>
-  </si>
-  <si>
-    <t>/discipline/capability/{id}</t>
-  </si>
-  <si>
-    <t>Discipline[]</t>
-  </si>
-  <si>
-    <t>Returns list of disciplines for a given capability</t>
-  </si>
-  <si>
     <t>Returns list of badges for a given discipline</t>
   </si>
   <si>
@@ -250,33 +219,15 @@
     <t xml:space="preserve"> Returns list of all requirements for a given badge</t>
   </si>
   <si>
-    <t>Checklist[]</t>
-  </si>
-  <si>
-    <t>Requirements[]</t>
-  </si>
-  <si>
-    <t>Requirement</t>
+    <t>/badgerequirement/badge/{badgeid}</t>
+  </si>
+  <si>
+    <t>/badgerequirement/{id}</t>
   </si>
   <si>
     <t>Returns a single requirement given a requirement id</t>
   </si>
   <si>
-    <t>/requirement/badge/{badgeid}</t>
-  </si>
-  <si>
-    <t>/requirement/{id}</t>
-  </si>
-  <si>
-    <t>/checklist/user/{userid}/badge/{badgeid}</t>
-  </si>
-  <si>
-    <t>/checklist/{id}</t>
-  </si>
-  <si>
-    <t>Checklist</t>
-  </si>
-  <si>
     <t>Returns a single checklist requirement</t>
   </si>
   <si>
@@ -307,9 +258,6 @@
     <t>Badge Routes</t>
   </si>
   <si>
-    <t>Disclipine Routes</t>
-  </si>
-  <si>
     <t>Capability Routes</t>
   </si>
   <si>
@@ -325,33 +273,15 @@
     <t xml:space="preserve">     { badge: Badge }</t>
   </si>
   <si>
-    <t>Requirement Routes</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>Checklist Routes</t>
-  </si>
-  <si>
     <t>Returns the result of updating a badge checklist item</t>
   </si>
   <si>
-    <t xml:space="preserve">     { checklist: Checklist}</t>
-  </si>
-  <si>
-    <t>/checklist</t>
-  </si>
-  <si>
     <t>Returns a new badge checklist item</t>
   </si>
   <si>
-    <t>/requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     { requirement: Requirement}</t>
-  </si>
-  <si>
     <t>Returns a new badge requirement item</t>
   </si>
   <si>
@@ -367,24 +297,9 @@
     <t>Creates a new user</t>
   </si>
   <si>
-    <t>/discipline/{id}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     { discipline: Discipline }</t>
-  </si>
-  <si>
-    <t>Updates an existing discipline</t>
-  </si>
-  <si>
-    <t>Creates a new discipline</t>
-  </si>
-  <si>
     <t>Deletes a requirement</t>
   </si>
   <si>
-    <t>Authentication</t>
-  </si>
-  <si>
     <t>Authentication Routes</t>
   </si>
   <si>
@@ -499,18 +414,12 @@
     <t>/badgetype</t>
   </si>
   <si>
-    <t>Controllers</t>
-  </si>
-  <si>
     <t>BadgeRequirement</t>
   </si>
   <si>
     <t>AchievementChecklist</t>
   </si>
   <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t xml:space="preserve">     UserService</t>
   </si>
   <si>
@@ -587,13 +496,55 @@
   </si>
   <si>
     <t>Returns a user given an email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { category: Category }</t>
+  </si>
+  <si>
+    <t>Creates a new category</t>
+  </si>
+  <si>
+    <t>Updates an existing category</t>
+  </si>
+  <si>
+    <t>Deletes and existing category</t>
+  </si>
+  <si>
+    <t>can only delete if not used</t>
+  </si>
+  <si>
+    <t>BadgeRequirement Routes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { badgerequirement: BadgeRequirement}</t>
+  </si>
+  <si>
+    <t>/badgerequirement</t>
+  </si>
+  <si>
+    <t>BadgeRequirements[]</t>
+  </si>
+  <si>
+    <t>/achievementchecklist/user/{userid}/badge/{badgeid}</t>
+  </si>
+  <si>
+    <t>/achievementchecklist/{id}</t>
+  </si>
+  <si>
+    <t>/achievementchecklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     { achievementchecklist: AchievementChecklist}</t>
+  </si>
+  <si>
+    <t>AchievementChecklist[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -677,13 +628,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -711,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -723,7 +667,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2787,9 +2730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2805,7 +2748,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="3108960" y="5720080"/>
-          <a:ext cx="4805680" cy="10160"/>
+          <a:ext cx="4663440" cy="30480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3180,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4E711D-A889-F840-B38C-48F66B50F2D4}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3191,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3201,28 +3144,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3237,17 +3180,17 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I13" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3257,15 +3200,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>8</v>
@@ -3278,12 +3221,12 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I21" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I23" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3293,7 +3236,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I25" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3304,115 +3247,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D14B79-96F7-D04D-9879-B8E70751AAF2}">
-  <dimension ref="A2:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121AAD50-1F3E-354D-A82B-FE61577E596D}">
   <dimension ref="A2:F12"/>
   <sheetViews>
@@ -3427,12 +3261,12 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3442,79 +3276,79 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3524,25 +3358,25 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3552,19 +3386,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -3573,12 +3407,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76ECEE02-A62F-9940-A475-75E3AFFA3A60}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3588,12 +3422,12 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3602,88 +3436,140 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3691,146 +3577,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A8053C-D8C3-E04F-A8BA-57074B278210}">
-  <dimension ref="A1:A19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
-  <dimension ref="A1:F72"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3842,7 +3628,7 @@
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3851,19 +3637,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>77</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3875,7 +3661,7 @@
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3884,24 +3670,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
+        <v>144</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3910,651 +3696,646 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>77</v>
+        <v>143</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>86</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>81</v>
+      <c r="B39" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>100</v>
-      </c>
+    <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>99</v>
+      <c r="A50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>134</v>
+      <c r="A55" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>129</v>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4563,57 +4344,75 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>93</v>
+      <c r="A63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4622,101 +4421,160 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>145</v>
+    <row r="69" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>77</v>
+        <v>159</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>147</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4725,7 +4583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7FB9C0-6D9B-EA43-86CE-62488FCDBEBD}">
   <dimension ref="A2:E25"/>
   <sheetViews>
@@ -4742,7 +4600,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4750,7 +4608,7 @@
     </row>
     <row r="4" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4759,19 +4617,19 @@
     </row>
     <row r="5" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4783,7 +4641,7 @@
     </row>
     <row r="7" spans="1:5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4792,24 +4650,24 @@
     </row>
     <row r="8" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4818,107 +4676,107 @@
     </row>
     <row r="10" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4927,36 +4785,36 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -4968,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A465CD1-D6F7-9041-8A2D-50A1485B8A1E}">
   <dimension ref="A2:F5"/>
   <sheetViews>
@@ -4983,12 +4841,12 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4998,19 +4856,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -5019,12 +4877,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B163E5-67A7-084D-A911-402169A79C95}">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5032,68 +4890,117 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0F426C-1745-574D-951C-4E7769C56B92}">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5103,117 +5010,130 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="A6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="A7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="A9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="A10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8BAF33-DE4E-1E4F-AD2E-75B314F497B5}">
   <dimension ref="A2:F7"/>
   <sheetViews>
@@ -5228,12 +5148,12 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -5243,25 +5163,25 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -5271,19 +5191,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -5292,12 +5212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCCEC27-64BC-994D-B48B-D371CCD95FCF}">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,12 +5227,12 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5321,55 +5241,55 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5378,59 +5298,168 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D14B79-96F7-D04D-9879-B8E70751AAF2}">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Documentation.xlsx
+++ b/documentation/Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ratliff Drive/Projects/excella-badges/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94EDDBE-99ED-F444-89A9-4AAC9079582F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B9E4E5-199B-BA4B-9309-ADBEAEA32D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-6800" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{8A12091D-5711-3445-86BD-2D461F98DB31}"/>
   </bookViews>
@@ -302,9 +302,6 @@
     <t xml:space="preserve">     { skill: Skill }</t>
   </si>
   <si>
-    <t>/skill/capability/{id}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ERD Diagram</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>/user/{id}/achievement/{achievementid}/requirement</t>
+  </si>
+  <si>
+    <t>/skill/{id}/capability</t>
   </si>
 </sst>
 </file>
@@ -901,10 +901,10 @@
   <sheetData>
     <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
         <v>88</v>
-      </c>
-      <c r="L2" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9932216B-7A50-3D46-B5D7-19265EC37A39}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,7 +936,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>37</v>
@@ -1237,15 +1237,15 @@
         <v>8</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>37</v>
@@ -1254,15 +1254,15 @@
         <v>8</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>41</v>
@@ -1274,12 +1274,12 @@
         <v>39</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>41</v>
@@ -1297,15 +1297,15 @@
         <v>42</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>41</v>
@@ -1326,7 +1326,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>73</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>41</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>41</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>41</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>37</v>
@@ -1751,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>37</v>
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>34</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>37</v>
@@ -1834,7 +1834,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>35</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>41</v>
@@ -1854,12 +1854,12 @@
         <v>39</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>41</v>
@@ -1877,15 +1877,15 @@
         <v>42</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>41</v>
@@ -1906,7 +1906,7 @@
         <v>39</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1940,7 +1940,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>41</v>
@@ -1952,12 +1952,12 @@
         <v>39</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>41</v>
@@ -1978,12 +1978,12 @@
         <v>33</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>41</v>
@@ -2004,7 +2004,7 @@
         <v>39</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
